--- a/IC code/2023_IC_data/HC_Project_Responses_renamed.xlsx
+++ b/IC code/2023_IC_data/HC_Project_Responses_renamed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherylchung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherylchung/Documents/GitHub/Emoryqtm151-2023/IC code/2023_IC_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831B35B-B2F2-3041-8083-138D54A40FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFBAA63-7488-A840-9911-5B240FAF398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Response" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>If you checked "No", please explain why. (If you checked "Yes", please write N/A)</t>
   </si>
   <si>
-    <t>In general, (not just for EIIG) how would you rate your work life balance on a scale of 1-10?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">How comfortable are you with the amount of work you do for EIIG a week? </t>
     </r>
@@ -267,28 +264,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Does your work in EIIG impact your academic performance? </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(1= negative, 5= no impact, 10= positive)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Do you think working for EIIG has positively or negatively impacted your social life? </t>
     </r>
     <r>
@@ -1619,6 +1594,12 @@
   </si>
   <si>
     <t>Respect</t>
+  </si>
+  <si>
+    <t>work_life_balance</t>
+  </si>
+  <si>
+    <t>academic_performance</t>
   </si>
 </sst>
 </file>
@@ -1663,12 +1644,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1683,7 +1670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1693,6 +1680,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1915,9 +1906,9 @@
   </sheetPr>
   <dimension ref="A1:BN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB12" sqref="BB12"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1950,13 +1941,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1980,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -2058,67 +2049,67 @@
         <v>22</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>2</v>
@@ -2135,16 +2126,16 @@
         <v>45020.525996215278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -2165,37 +2156,37 @@
         <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R2" s="1">
         <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="1">
-        <v>8</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="AP2" s="1">
         <v>1</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AR2" s="1">
         <v>8</v>
@@ -2204,49 +2195,49 @@
         <v>3</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>7</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="BB2" s="1">
         <v>0</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1">
+        <v>8</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>8</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2254,112 +2245,112 @@
         <v>45014.432895208331</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="1">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="1">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>9</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="R3" s="1">
-        <v>9</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" s="1">
-        <v>8</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AP3" s="1">
         <v>2</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AR3" s="1">
         <v>3</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT3" s="1">
         <v>3</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AV3" s="1">
         <v>4</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AX3" s="1">
         <v>3</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AZ3" s="1">
         <v>4</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB3" s="1">
         <v>2</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -2372,124 +2363,124 @@
         <v>45018.878787511574</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="1">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="1">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="1">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1">
+        <v>7</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" s="1">
-        <v>7</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="T4" s="1">
         <v>8</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP4" s="1">
         <v>2</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AR4" s="1">
         <v>4</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AT4" s="1">
         <v>7</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AV4" s="1">
         <v>3</v>
       </c>
       <c r="AW4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>7</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>7</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="BB4" s="1">
         <v>2</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BG4" s="1">
+        <v>10</v>
+      </c>
+      <c r="BH4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>10</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="BI4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2497,40 +2488,40 @@
         <v>45019.531179525467</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N5" s="1">
         <v>6</v>
@@ -2542,31 +2533,31 @@
         <v>10</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T5" s="1">
         <v>7</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AL5" s="1">
         <v>6</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AP5" s="1">
         <v>2</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AR5" s="1">
         <v>4</v>
@@ -2575,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AV5" s="1">
         <v>2</v>
@@ -2584,34 +2575,34 @@
         <v>1</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AZ5" s="1">
         <v>4</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BB5" s="1">
         <v>2</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BG5" s="1">
         <v>1</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2619,16 +2610,16 @@
         <v>45018.837118460651</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -2655,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AP6" s="1">
         <v>3</v>
@@ -2679,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BG6" s="1">
         <v>7</v>
@@ -2696,16 +2687,16 @@
         <v>45020.529594282409</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>9</v>
@@ -2732,19 +2723,19 @@
         <v>8</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL7" s="1">
         <v>8</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP7" s="1">
         <v>3</v>
@@ -2762,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AZ7" s="1">
         <v>7</v>
@@ -2771,25 +2762,25 @@
         <v>2</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BE7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="BG7" s="1">
         <v>9</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,124 +2788,124 @@
         <v>45020.638141550924</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="1">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="1">
-        <v>8</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="1">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="1">
-        <v>8</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="T8" s="1">
         <v>5</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP8" s="1">
         <v>3</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AR8" s="1">
         <v>7</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AT8" s="1">
         <v>6</v>
       </c>
       <c r="AU8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AV8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AZ8" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>8</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>7</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="BB8" s="1">
         <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BE8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="BG8" s="1">
         <v>8</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2922,22 +2913,22 @@
         <v>45020.665179421296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1">
         <v>6</v>
@@ -2955,13 +2946,13 @@
         <v>5</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T9" s="1">
         <v>10</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AP9" s="1">
         <v>3</v>
@@ -2985,22 +2976,22 @@
         <v>1</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BI9" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>8</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3008,16 +2999,16 @@
         <v>45020.919518252311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1">
         <v>7</v>
@@ -3038,25 +3029,25 @@
         <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" s="1">
+        <v>7</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="T10" s="1">
-        <v>7</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="AP10" s="1">
         <v>3</v>
@@ -3080,22 +3071,22 @@
         <v>2</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BG10" s="1">
         <v>6</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3103,16 +3094,16 @@
         <v>45018.830172858798</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
@@ -3139,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AP11" s="1">
         <v>4</v>
@@ -3163,22 +3154,22 @@
         <v>3</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BG11" s="1">
         <v>9</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3186,124 +3177,124 @@
         <v>45019.554041898147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="1">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L12" s="1">
-        <v>8</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" s="1">
-        <v>9</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="P12" s="1">
         <v>6</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="1">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T12" s="1">
+        <v>9</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="R12" s="1">
-        <v>7</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T12" s="1">
-        <v>9</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="AP12" s="1">
         <v>4</v>
       </c>
       <c r="AQ12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AR12" s="1">
-        <v>9</v>
-      </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AV12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AT12" s="1">
-        <v>8</v>
-      </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AX12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AV12" s="1">
-        <v>9</v>
-      </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AZ12" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA12" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>9</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>10</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="BB12" s="1">
         <v>4</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BE12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="BG12" s="1">
         <v>9</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3311,136 +3302,136 @@
         <v>45020.451463738427</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>168</v>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="H13" s="1">
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1">
         <v>4</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>171</v>
+      <c r="M13" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="N13" s="1">
         <v>9</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P13" s="1">
         <v>6</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="T13" s="1">
         <v>6</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AL13" s="1">
         <v>4</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP13" s="1">
         <v>4</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AR13" s="1">
         <v>4</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AT13" s="1">
         <v>3</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AV13" s="1">
         <v>7</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AX13" s="1">
         <v>2</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AZ13" s="1">
         <v>10</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BB13" s="1">
         <v>2</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="BE13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="BG13" s="1">
         <v>2</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3448,28 +3439,28 @@
         <v>45020.520464652778</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H14" s="1">
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J14" s="1">
         <v>10</v>
@@ -3487,13 +3478,13 @@
         <v>9</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T14" s="1">
         <v>9</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AP14" s="1">
         <v>4</v>
@@ -3517,22 +3508,22 @@
         <v>2</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BG14" s="1">
         <v>6</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3540,58 +3531,58 @@
         <v>45018.840279247685</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="1">
-        <v>9</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="N15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N15" s="1">
-        <v>10</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="P15" s="1">
         <v>6</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T15" s="1">
         <v>5</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AP15" s="1">
         <v>5</v>
@@ -3600,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT15" s="1">
         <v>5</v>
@@ -3618,22 +3609,22 @@
         <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BG15" s="1">
         <v>10</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3641,16 +3632,16 @@
         <v>45020.517122523146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -3677,19 +3668,19 @@
         <v>5</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL16" s="1">
         <v>4</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AP16" s="1">
         <v>5</v>
@@ -3713,16 +3704,16 @@
         <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BG16" s="1">
         <v>3</v>
@@ -3733,79 +3724,79 @@
         <v>45021.013636759264</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H17" s="1">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J17" s="1">
-        <v>8</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="L17" s="1">
         <v>6</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P17" s="1">
         <v>5</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R17" s="1">
         <v>12</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="1">
+        <v>7</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS17" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="T17" s="1">
-        <v>7</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="AT17" s="1">
         <v>4</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AV17" s="1">
         <v>5</v>
@@ -3817,28 +3808,28 @@
         <v>3</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BB17" s="1">
         <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BG17" s="1">
         <v>5</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3846,124 +3837,124 @@
         <v>45020.516958564811</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="1">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="1">
-        <v>8</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="N18" s="1">
+        <v>8</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="L18" s="1">
-        <v>7</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="P18" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N18" s="1">
-        <v>8</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="R18" s="1">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="P18" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="R18" s="1">
-        <v>10</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="T18" s="1">
         <v>6</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP18" s="1">
         <v>6</v>
       </c>
       <c r="AQ18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AU18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AR18" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AV18" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AT18" s="1">
-        <v>7</v>
-      </c>
-      <c r="AU18" s="1" t="s">
+      <c r="AX18" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AV18" s="1">
-        <v>8</v>
-      </c>
-      <c r="AW18" s="1" t="s">
+      <c r="AZ18" s="1">
+        <v>7</v>
+      </c>
+      <c r="BA18" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>8</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>7</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="BB18" s="1">
         <v>2</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF18" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="BE18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="BG18" s="1">
         <v>6</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3971,16 +3962,16 @@
         <v>45020.674006018518</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1">
         <v>8</v>
@@ -4001,31 +3992,31 @@
         <v>5</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" s="1">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R19" s="1">
-        <v>10</v>
-      </c>
-      <c r="S19" s="1" t="s">
+      <c r="AL19" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T19" s="1">
-        <v>7</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>9</v>
-      </c>
-      <c r="AM19" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="AN19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP19" s="1">
         <v>6</v>
@@ -4037,19 +4028,19 @@
         <v>7</v>
       </c>
       <c r="AU19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY19" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>8</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="AZ19" s="1">
         <v>5</v>
@@ -4058,25 +4049,25 @@
         <v>2</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BF19" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="BE19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF19" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="BG19" s="1">
         <v>6</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4084,16 +4075,16 @@
         <v>45020.691896701392</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
@@ -4117,25 +4108,25 @@
         <v>8</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T20" s="1">
         <v>6</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL20" s="1">
         <v>7</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP20" s="1">
         <v>6</v>
@@ -4159,25 +4150,25 @@
         <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BF20" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="BE20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BF20" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="BG20" s="1">
         <v>3</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4185,64 +4176,64 @@
         <v>45018.84512168981</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1">
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H21" s="1">
         <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J21" s="1">
         <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N21" s="1">
+        <v>10</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L21" s="1">
-        <v>10</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="P21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N21" s="1">
-        <v>10</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P21" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="T21" s="1">
+        <v>7</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="R21" s="1">
-        <v>10</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T21" s="1">
-        <v>7</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="AP21" s="1">
         <v>7</v>
@@ -4266,22 +4257,22 @@
         <v>2</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BE21" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BG21" s="1">
         <v>10</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4289,124 +4280,124 @@
         <v>45018.869132372682</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="L22" s="1">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J22" s="1">
-        <v>10</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="N22" s="1">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L22" s="1">
-        <v>10</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="P22" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="N22" s="1">
-        <v>10</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="R22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="P22" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="1">
+        <v>5</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="T22" s="1">
-        <v>5</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="AR22" s="1">
         <v>6</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AT22" s="1">
         <v>9</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV22" s="1">
         <v>4</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AX22" s="1">
         <v>6</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AZ22" s="1">
         <v>8</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BB22" s="1">
         <v>1</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BE22" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="BG22" s="1">
         <v>10</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4414,16 +4405,16 @@
         <v>45019.954929814819</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
@@ -4450,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AP23" s="1">
         <v>7</v>
@@ -4474,22 +4465,22 @@
         <v>1</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BE23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BG23" s="1">
         <v>7</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BI23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4497,124 +4488,124 @@
         <v>45020.586986956019</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1">
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" s="1">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J24" s="1">
-        <v>10</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="N24" s="1">
+        <v>10</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L24" s="1">
-        <v>10</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="P24" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N24" s="1">
-        <v>10</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="R24" s="1">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="P24" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="1" t="s">
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="R24" s="1">
-        <v>10</v>
-      </c>
-      <c r="S24" s="1" t="s">
+      <c r="AP24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="T24" s="1">
-        <v>10</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="AR24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS24" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AP24" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AT24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU24" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AR24" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AV24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW24" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AT24" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU24" s="1" t="s">
+      <c r="AX24" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY24" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AV24" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW24" s="1" t="s">
+      <c r="AZ24" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA24" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY24" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>10</v>
-      </c>
-      <c r="BA24" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="BB24" s="1">
         <v>2</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF24" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BE24" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BF24" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="BG24" s="1">
         <v>10</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4622,136 +4613,136 @@
         <v>45020.684998067125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1">
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H25" s="1">
         <v>9</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J25" s="1">
         <v>6</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L25" s="1">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L25" s="1">
-        <v>10</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="P25" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N25" s="1">
-        <v>9</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P25" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="T25" s="1">
+        <v>8</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="AL25" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="T25" s="1">
-        <v>8</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="AN25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AL25" s="1">
-        <v>8</v>
-      </c>
-      <c r="AM25" s="1" t="s">
+      <c r="AR25" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS25" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP25" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AR25" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="AT25" s="1">
         <v>6</v>
       </c>
       <c r="AU25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AV25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW25" s="1" t="s">
+      <c r="AZ25" s="1">
+        <v>9</v>
+      </c>
+      <c r="BA25" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>9</v>
-      </c>
-      <c r="BA25" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="BB25" s="1">
         <v>2</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD25" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BF25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BE25" s="1" t="s">
+      <c r="BG25" s="1">
+        <v>10</v>
+      </c>
+      <c r="BH25" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BF25" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BG25" s="1">
-        <v>10</v>
-      </c>
-      <c r="BH25" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="BI25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4759,16 +4750,16 @@
         <v>45020.707661516208</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1">
         <v>7</v>
@@ -4795,19 +4786,19 @@
         <v>9</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO26" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>9</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="AP26" s="1">
         <v>7</v>
@@ -4831,22 +4822,22 @@
         <v>2</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BG26" s="1">
         <v>10</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4854,28 +4845,28 @@
         <v>45020.966154201393</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J27" s="1">
         <v>7</v>
@@ -4884,13 +4875,13 @@
         <v>4</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N27" s="1">
         <v>5</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P27" s="1">
         <v>4</v>
@@ -4899,19 +4890,19 @@
         <v>8</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T27" s="1">
         <v>6</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AP27" s="1">
         <v>7</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AR27" s="1">
         <v>4</v>
@@ -4932,25 +4923,25 @@
         <v>1</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BF27" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="BE27" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="BG27" s="1">
         <v>3</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4958,124 +4949,124 @@
         <v>45021.390291215277</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H28" s="1">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J28" s="1">
-        <v>9</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="N28" s="1">
+        <v>8</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L28" s="1">
-        <v>7</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="P28" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="N28" s="1">
-        <v>8</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="R28" s="1">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="P28" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="1" t="s">
+      <c r="T28" s="1">
+        <v>5</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="R28" s="1">
-        <v>10</v>
-      </c>
-      <c r="S28" s="1" t="s">
+      <c r="AR28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS28" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T28" s="1">
-        <v>5</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AT28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU28" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AR28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AV28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AW28" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AT28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU28" s="1" t="s">
+      <c r="AX28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AV28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW28" s="1" t="s">
+      <c r="AZ28" s="1">
+        <v>8</v>
+      </c>
+      <c r="BA28" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AZ28" s="1">
-        <v>8</v>
-      </c>
-      <c r="BA28" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="BB28" s="1">
         <v>3</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF28" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="BE28" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF28" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="BG28" s="1">
         <v>4</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5083,16 +5074,16 @@
         <v>45021.542762696758</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1">
         <v>9</v>
@@ -5116,13 +5107,13 @@
         <v>12</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="T29" s="1">
         <v>7</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AP29" s="1">
         <v>7</v>
@@ -5140,7 +5131,7 @@
         <v>7</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ29" s="1">
         <v>9</v>
@@ -5149,22 +5140,22 @@
         <v>2</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD29" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BE29" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="BG29" s="1">
         <v>9</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5172,124 +5163,124 @@
         <v>45018.830584814816</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1">
         <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J30" s="1">
+        <v>9</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H30" s="1">
-        <v>8</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="1">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J30" s="1">
-        <v>9</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="N30" s="1">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L30" s="1">
-        <v>10</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="P30" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="N30" s="1">
-        <v>10</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="P30" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="R30" s="1">
         <v>15</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="T30" s="1">
-        <v>10</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="AR30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS30" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AP30" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AT30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU30" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AR30" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS30" s="1" t="s">
+      <c r="AV30" s="1">
+        <v>7</v>
+      </c>
+      <c r="AW30" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AT30" s="1">
-        <v>8</v>
-      </c>
-      <c r="AU30" s="1" t="s">
+      <c r="AX30" s="1">
+        <v>9</v>
+      </c>
+      <c r="AY30" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AV30" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW30" s="1" t="s">
+      <c r="AZ30" s="1">
+        <v>8</v>
+      </c>
+      <c r="BA30" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="AX30" s="1">
-        <v>9</v>
-      </c>
-      <c r="AY30" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ30" s="1">
-        <v>8</v>
-      </c>
-      <c r="BA30" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="BB30" s="1">
         <v>2</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD30" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BE30" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BF30" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BE30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BF30" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="BG30" s="1">
         <v>9</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5297,124 +5288,124 @@
         <v>45018.870096481478</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H31" s="1">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="L31" s="1">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J31" s="1">
-        <v>10</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="N31" s="1">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L31" s="1">
-        <v>10</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="P31" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N31" s="1">
-        <v>10</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="R31" s="1">
+        <v>10</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="P31" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+      <c r="T31" s="1">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="R31" s="1">
-        <v>10</v>
-      </c>
-      <c r="S31" s="1" t="s">
+      <c r="AP31" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="T31" s="1">
-        <v>10</v>
-      </c>
-      <c r="U31" s="1" t="s">
+      <c r="AR31" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS31" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AP31" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="AT31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU31" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="AR31" s="1">
-        <v>9</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT31" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="AV31" s="1">
         <v>6</v>
       </c>
       <c r="AW31" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA31" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AX31" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY31" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ31" s="1">
-        <v>10</v>
-      </c>
-      <c r="BA31" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="BB31" s="1">
         <v>3</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD31" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF31" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BE31" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="BG31" s="1">
         <v>10</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5422,124 +5413,124 @@
         <v>45018.916182928238</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1">
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H32" s="1">
         <v>9</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J32" s="1">
         <v>6</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L32" s="1">
+        <v>10</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N32" s="1">
+        <v>8</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L32" s="1">
-        <v>10</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="P32" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="N32" s="1">
-        <v>8</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P32" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="R32" s="1">
         <v>12</v>
       </c>
       <c r="S32" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T32" s="1">
+        <v>8</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="T32" s="1">
-        <v>8</v>
-      </c>
-      <c r="U32" s="1" t="s">
+      <c r="AR32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS32" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AP32" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
+      <c r="AT32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW32" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AR32" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS32" s="1" t="s">
+      <c r="AX32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY32" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AT32" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV32" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW32" s="1" t="s">
+      <c r="AZ32" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA32" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY32" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AZ32" s="1">
-        <v>10</v>
-      </c>
-      <c r="BA32" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="BB32" s="1">
         <v>2</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="BD32" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BE32" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF32" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BE32" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BF32" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="BG32" s="1">
         <v>10</v>
       </c>
       <c r="BH32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5547,52 +5538,52 @@
         <v>45020.013848460643</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F33" s="1">
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H33" s="1">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1">
+        <v>8</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J33" s="1">
-        <v>8</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="N33" s="1">
+        <v>9</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L33" s="1">
-        <v>8</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="P33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="N33" s="1">
-        <v>9</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P33" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="R33" s="1">
         <v>12</v>
@@ -5601,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AP33" s="1">
         <v>9</v>
@@ -5613,19 +5604,19 @@
         <v>4</v>
       </c>
       <c r="AU33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW33" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY33" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="AV33" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW33" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AX33" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY33" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="AZ33" s="1">
         <v>9</v>
@@ -5634,22 +5625,22 @@
         <v>3</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD33" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BE33" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="BG33" s="1">
         <v>6</v>
       </c>
       <c r="BH33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BI33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5657,124 +5648,124 @@
         <v>45020.664035729162</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N34" s="1">
+        <v>8</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L34" s="1">
-        <v>10</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="P34" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="N34" s="1">
-        <v>8</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="R34" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="P34" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="T34" s="1">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="AP34" s="1">
+        <v>9</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="T34" s="1">
-        <v>10</v>
-      </c>
-      <c r="U34" s="1" t="s">
+      <c r="AR34" s="1">
+        <v>10</v>
+      </c>
+      <c r="AS34" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AP34" s="1">
-        <v>9</v>
-      </c>
-      <c r="AQ34" s="1" t="s">
+      <c r="AT34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU34" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AR34" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS34" s="1" t="s">
+      <c r="AV34" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW34" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AT34" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU34" s="1" t="s">
+      <c r="AX34" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY34" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AV34" s="1">
-        <v>10</v>
-      </c>
-      <c r="AW34" s="1" t="s">
+      <c r="AZ34" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA34" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AX34" s="1">
-        <v>10</v>
-      </c>
-      <c r="AY34" s="1" t="s">
+      <c r="BB34" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD34" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AZ34" s="1">
-        <v>10</v>
-      </c>
-      <c r="BA34" s="1" t="s">
+      <c r="BE34" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="BB34" s="1">
-        <v>5</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD34" s="1" t="s">
+      <c r="BF34" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="BE34" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="BF34" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="BG34" s="1">
         <v>7</v>
       </c>
       <c r="BH34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5782,61 +5773,61 @@
         <v>45020.684574085652</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H35" s="1">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" s="1">
+        <v>10</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J35" s="1">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="N35" s="1">
+        <v>9</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="L35" s="1">
-        <v>10</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="P35" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="N35" s="1">
-        <v>9</v>
-      </c>
-      <c r="O35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="P35" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+      <c r="T35" s="1">
+        <v>7</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="T35" s="1">
-        <v>7</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="AP35" s="1">
         <v>9</v>
@@ -5860,22 +5851,22 @@
         <v>1</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD35" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="BE35" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BG35" s="1">
         <v>10</v>
       </c>
       <c r="BH35" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5883,124 +5874,124 @@
         <v>45020.685348530096</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1">
         <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H36" s="1">
         <v>8</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J36" s="1">
         <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L36" s="1">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N36" s="1">
+        <v>7</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="L36" s="1">
-        <v>9</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="P36" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="N36" s="1">
-        <v>7</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="R36" s="1">
+        <v>10</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="P36" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="R36" s="1">
-        <v>10</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="T36" s="1">
         <v>4</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP36" s="1">
         <v>9</v>
       </c>
       <c r="AQ36" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS36" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU36" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS36" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AT36" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU36" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="AV36" s="1">
         <v>6</v>
       </c>
       <c r="AW36" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AX36" s="1">
         <v>5</v>
       </c>
       <c r="AY36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA36" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="AZ36" s="1">
-        <v>5</v>
-      </c>
-      <c r="BA36" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="BB36" s="1">
         <v>2</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD36" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="BE36" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF36" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BE36" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="BF36" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="BG36" s="1">
         <v>10</v>
       </c>
       <c r="BH36" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BI36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6008,16 +5999,16 @@
         <v>45018.828669374998</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1">
         <v>7</v>
@@ -6044,7 +6035,7 @@
         <v>8</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AP37" s="1">
         <v>10</v>
@@ -6068,13 +6059,13 @@
         <v>2</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BD37" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BE37" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BG37" s="1">
         <v>10</v>
